--- a/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v2.xlsx
+++ b/Structured-Product-Labeling-(SPL)/Style-Sheets/Change-Management/To-Do.v2.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Active" sheetId="1" r:id="rId1"/>
+    <sheet name="Closed" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>Priority</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Create xslt</t>
   </si>
   <si>
-    <t>vacation</t>
-  </si>
-  <si>
     <t>multiple roles</t>
   </si>
   <si>
@@ -102,15 +100,6 @@
     <t>There needs to be more space before the Brand Name label</t>
   </si>
   <si>
-    <t xml:space="preserve">remove the Business Operations column </t>
-  </si>
-  <si>
-    <t>Organizations Table - ID</t>
-  </si>
-  <si>
-    <t>Organizations Table - Business Operations</t>
-  </si>
-  <si>
     <t>For the DIN Owner add a ID column at the end, the content will be /document/author[1]/assignedEntity[1]/representedOrganization[1]/assignedEntity[1]/assignedOrganization[1]/assignedEntity[1]/assignedOrganization[1]/id[1]/@extension where /document/author[1]/assignedEntity[1]/representedOrganization[1]/assignedEntity[1]/assignedOrganization[1]/assignedEntity[1]/assignedOrganization[1]/id[1]/@root="2.16.840.1.113883.2.20.6.31"</t>
   </si>
   <si>
@@ -121,9 +110,6 @@
   </si>
   <si>
     <t>Facilities Table</t>
-  </si>
-  <si>
-    <t>Organizations Table - Role</t>
   </si>
   <si>
     <t xml:space="preserve">remove the Role column </t>
@@ -158,46 +144,91 @@
     <t>Footers should be formated as header in all tables</t>
   </si>
   <si>
-    <t xml:space="preserve">Separate eac entry in repeating fields, using ";" see 
+    <t>Create TOC entries for CPID Overview subsections</t>
+  </si>
+  <si>
+    <t>move the HC images to static site</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Product Description Table</t>
+  </si>
+  <si>
+    <t>The Product Information -&gt; Route Of Administration field needs 2 spaces after each ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the Product Information -&gt; Reporting Period field </t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Does not work for CPID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>header tab</t>
+  </si>
+  <si>
+    <t>Font size and bolding is not applied uniformly</t>
+  </si>
+  <si>
+    <t>Canada Logo</t>
+  </si>
+  <si>
+    <t>Please remove the image</t>
+  </si>
+  <si>
+    <t>CPID Overview</t>
+  </si>
+  <si>
+    <t>Proposed Indication has not been mapped yet</t>
+  </si>
+  <si>
+    <t>Non-Proprietary Name of Drug Substance, should include the code and be in the following format  "&lt;code@displayName&gt; (&lt;code@code&gt;)" where the &lt; &gt; is replaced with the content</t>
+  </si>
+  <si>
+    <t>The Product Information -&gt; Product Type field is mapped to the wrong element it should be the marketing_catagory from 2.16.840.1.113883.2.20.6.27 but not sure how to encode this. &lt;templateId root="2.16.840.1.113883.2.20.6.27" extension="Biologic"/&gt;</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the Organizations Table - Business Operations column </t>
+  </si>
+  <si>
+    <t>Organizations Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate eac entry in repeating fields, using ";" and ensure there are 2 spaces after the ";" see 
 Summary of Product Information/Route Of Administration
 </t>
   </si>
   <si>
-    <t>Create TOC entries for CPID Overview subsections</t>
-  </si>
-  <si>
-    <t>move the HC images to static site</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Product Description Table</t>
-  </si>
-  <si>
-    <t>The Product Information -&gt; Route Of Administration field needs 2 spaces after each ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove the Product Information -&gt; Reporting Period field </t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>Remove the Product Information -&gt; Product Type field is mapped to the wrong element it should be the marketing_catagory from 2.16.840.1.113883.2.20.6.27 but not sure how to encode this. &lt;templateId root="2.16.840.1.113883.2.20.6.27" extension="Biologic"/&gt;</t>
+    <t>1 - High</t>
+  </si>
+  <si>
+    <t>3 - Low</t>
+  </si>
+  <si>
+    <t>2 - Medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +246,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -240,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +286,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -531,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -546,10 +589,11 @@
     <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="81" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="27.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -571,393 +615,402 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="G4" s="4">
+        <v>43166</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="67.95" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
+    <row r="18" spans="1:6" ht="85.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="67.95" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="85.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -966,74 +1019,208 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="42.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H30">
+    <sortCondition ref="B2:B30"/>
+    <sortCondition ref="C2:C30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ED2D71-6810-4F5D-BC8F-EA27FC70BC7A}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="51.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4">
+        <v>43166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="42.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>